--- a/simple-ha-pair.xlsx
+++ b/simple-ha-pair.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Dropbox/Ansible/galaxy/mwalco/f5_ansible-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwyatt\Dropbox\Ansible\galaxy\simple-ha-pair\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13480" yWindow="3120" windowWidth="28160" windowHeight="16880" tabRatio="663" activeTab="8"/>
+    <workbookView xWindow="13485" yWindow="3120" windowWidth="28155" windowHeight="16875" tabRatio="663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
-    <sheet name="provisionning" sheetId="10" r:id="rId2"/>
-    <sheet name="trunks" sheetId="2" r:id="rId3"/>
-    <sheet name="vlans" sheetId="7" r:id="rId4"/>
-    <sheet name="self_ips" sheetId="4" r:id="rId5"/>
-    <sheet name="routes" sheetId="8" r:id="rId6"/>
-    <sheet name="pool_members" sheetId="9" r:id="rId7"/>
-    <sheet name="pools" sheetId="5" r:id="rId8"/>
-    <sheet name="virtual_servers" sheetId="6" r:id="rId9"/>
-    <sheet name="original" sheetId="3" state="hidden" r:id="rId10"/>
+    <sheet name="vlans" sheetId="7" r:id="rId2"/>
+    <sheet name="self_ips" sheetId="4" r:id="rId3"/>
+    <sheet name="routes" sheetId="8" r:id="rId4"/>
+    <sheet name="pool_members" sheetId="9" r:id="rId5"/>
+    <sheet name="pools" sheetId="5" r:id="rId6"/>
+    <sheet name="virtual_servers" sheetId="6" r:id="rId7"/>
+    <sheet name="original" sheetId="3" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="128">
   <si>
     <t>1.1.1.1</t>
   </si>
@@ -197,21 +195,6 @@
     <t>bigipb.example.com</t>
   </si>
   <si>
-    <t>trunk_name</t>
-  </si>
-  <si>
-    <t>interface</t>
-  </si>
-  <si>
-    <t>lacp</t>
-  </si>
-  <si>
-    <t>TRUNK1</t>
-  </si>
-  <si>
-    <t>TRUNK2</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -366,39 +349,6 @@
   </si>
   <si>
     <t>255.255.255.0</t>
-  </si>
-  <si>
-    <t>ltm</t>
-  </si>
-  <si>
-    <t>afm</t>
-  </si>
-  <si>
-    <t>apm</t>
-  </si>
-  <si>
-    <t>asm</t>
-  </si>
-  <si>
-    <t>avr</t>
-  </si>
-  <si>
-    <t>gtm</t>
-  </si>
-  <si>
-    <t>pem</t>
-  </si>
-  <si>
-    <t>swg</t>
-  </si>
-  <si>
-    <t>vcmp</t>
-  </si>
-  <si>
-    <t>provision</t>
-  </si>
-  <si>
-    <t>module</t>
   </si>
   <si>
     <t>primary_address</t>
@@ -470,8 +420,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -822,61 +772,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -885,15 +835,15 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -902,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -911,12 +861,12 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -925,293 +875,97 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB3"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="17" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="17" thickBot="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>4094</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.3</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>3900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2">
-        <v>3901</v>
-      </c>
-      <c r="O2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2">
-        <v>666</v>
-      </c>
-      <c r="S2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U2">
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>101</v>
+      </c>
+      <c r="D4" s="3">
         <v>1.2</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3">
-        <v>3900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3">
-        <v>3901</v>
-      </c>
-      <c r="O3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3">
-        <v>666</v>
-      </c>
-      <c r="S3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U3">
-        <v>1.2</v>
-      </c>
-      <c r="X3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1220,158 +974,91 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B10">
-      <formula1>"yes,no"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3">
-        <v>1.2</v>
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4">
-        <v>1.3</v>
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5">
-        <v>1.4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-    </row>
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1379,189 +1066,187 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2">
-        <v>4094</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4">
-        <v>101</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" t="s">
-        <v>84</v>
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2">
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>63</v>
+        <v>95</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
       <c r="E4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1"/>
-    <row r="6" spans="1:5" s="4" customFormat="1"/>
-    <row r="7" spans="1:5" s="4" customFormat="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5">
+        <v>443</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6">
+        <v>443</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7">
+        <v>443</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1569,185 +1254,80 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
         <v>84</v>
       </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>80</v>
-      </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5">
-        <v>443</v>
-      </c>
-      <c r="C5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6">
-        <v>443</v>
-      </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7">
-        <v>443</v>
-      </c>
-      <c r="C7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1756,191 +1336,403 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3">
+        <v>443</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:AB3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>3900</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2">
+        <v>3901</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>666</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U2">
+        <v>1.2</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>3900</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>3901</v>
+      </c>
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3">
+        <v>666</v>
+      </c>
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U3">
+        <v>1.2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3">
-        <v>443</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/simple-ha-pair.xlsx
+++ b/simple-ha-pair.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwyatt\Dropbox\Ansible\galaxy\simple-ha-pair\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844CE9E3-0C06-4B4C-A57F-9320AA89807F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13485" yWindow="3120" windowWidth="28155" windowHeight="16875" tabRatio="663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13490" yWindow="3120" windowWidth="28160" windowHeight="16880" tabRatio="663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_settings" sheetId="1" r:id="rId1"/>
@@ -279,12 +280,6 @@
     <t>present</t>
   </si>
   <si>
-    <t>192.168.1.203</t>
-  </si>
-  <si>
-    <t>192.168.1.204</t>
-  </si>
-  <si>
     <t>least-connections-member</t>
   </si>
   <si>
@@ -415,6 +410,12 @@
   </si>
   <si>
     <t>gateway_address</t>
+  </si>
+  <si>
+    <t>192.168.1.101</t>
+  </si>
+  <si>
+    <t>192.168.1.242</t>
   </si>
 </sst>
 </file>
@@ -776,22 +777,22 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>50</v>
@@ -812,12 +813,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
@@ -838,12 +839,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -883,18 +884,18 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -902,10 +903,10 @@
         <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
         <v>80</v>
@@ -914,10 +915,10 @@
         <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -934,7 +935,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -951,7 +952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -982,33 +983,33 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>57</v>
       </c>
       <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" t="s">
-        <v>108</v>
-      </c>
       <c r="E1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1016,13 +1017,13 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -1036,10 +1037,10 @@
         <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -1053,12 +1054,12 @@
         <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1073,40 +1074,40 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.58203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1122,21 +1123,21 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
         <v>78</v>
@@ -1145,9 +1146,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>80</v>
@@ -1162,15 +1163,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
         <v>79</v>
@@ -1179,15 +1180,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
         <v>79</v>
@@ -1196,15 +1197,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>443</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
         <v>79</v>
@@ -1213,15 +1214,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6">
         <v>443</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
         <v>79</v>
@@ -1230,15 +1231,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>443</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
         <v>79</v>
@@ -1261,27 +1262,27 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
         <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
         <v>78</v>
@@ -1290,18 +1291,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -1310,18 +1311,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
         <v>79</v>
@@ -1344,53 +1345,53 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
-      </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
         <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" t="s">
         <v>121</v>
       </c>
-      <c r="I1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2">
         <v>80</v>
@@ -1399,21 +1400,21 @@
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
         <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3">
         <v>443</v>
@@ -1422,19 +1423,19 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
         <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" t="s">
         <v>122</v>
-      </c>
-      <c r="I3" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1450,36 +1451,36 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.58203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.5" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="12" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1565,7 +1566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>

--- a/simple-ha-pair.xlsx
+++ b/simple-ha-pair.xlsx
@@ -5,22 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwyatt\Dropbox\Ansible\galaxy\simple-ha-pair\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwyatt\Dropbox\Ansible\galaxy\2.simple-ha-pair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844CE9E3-0C06-4B4C-A57F-9320AA89807F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D97EC8-F837-4601-A321-372A9CF3F7FE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13490" yWindow="3120" windowWidth="28160" windowHeight="16880" tabRatio="663" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="system_settings" sheetId="1" r:id="rId1"/>
-    <sheet name="vlans" sheetId="7" r:id="rId2"/>
-    <sheet name="self_ips" sheetId="4" r:id="rId3"/>
-    <sheet name="routes" sheetId="8" r:id="rId4"/>
-    <sheet name="pool_members" sheetId="9" r:id="rId5"/>
-    <sheet name="pools" sheetId="5" r:id="rId6"/>
-    <sheet name="virtual_servers" sheetId="6" r:id="rId7"/>
-    <sheet name="original" sheetId="3" state="hidden" r:id="rId8"/>
+    <sheet name="mgmt" sheetId="10" r:id="rId1"/>
+    <sheet name="system_settings" sheetId="1" r:id="rId2"/>
+    <sheet name="vlans" sheetId="7" r:id="rId3"/>
+    <sheet name="self_ips" sheetId="4" r:id="rId4"/>
+    <sheet name="routes" sheetId="8" r:id="rId5"/>
+    <sheet name="pool_members" sheetId="9" r:id="rId6"/>
+    <sheet name="pools" sheetId="5" r:id="rId7"/>
+    <sheet name="virtual_servers" sheetId="6" r:id="rId8"/>
+    <sheet name="lists" sheetId="11" r:id="rId9"/>
+    <sheet name="original" sheetId="3" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="133">
   <si>
     <t>1.1.1.1</t>
   </si>
@@ -416,6 +418,21 @@
   </si>
   <si>
     <t>192.168.1.242</t>
+  </si>
+  <si>
+    <t>syslog</t>
+  </si>
+  <si>
+    <t>1.1.1.4</t>
+  </si>
+  <si>
+    <t>LB-method</t>
+  </si>
+  <si>
+    <t>least-connections-node</t>
+  </si>
+  <si>
+    <t>round-robin</t>
   </si>
 </sst>
 </file>
@@ -773,21 +790,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9C55E7-9C0C-409E-9284-9A1C8E42E981}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -797,23 +814,8 @@
       <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -823,23 +825,8 @@
       <c r="C2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -848,21 +835,6 @@
       </c>
       <c r="C3" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -872,578 +844,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2">
-        <v>4094</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4">
-        <v>101</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3">
-        <v>80</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5">
-        <v>443</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6">
-        <v>443</v>
-      </c>
-      <c r="C6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7">
-        <v>443</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.58203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3">
-        <v>443</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
@@ -1736,4 +1140,677 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>4094</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>101</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5">
+        <v>443</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>443</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7">
+        <v>443</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C6102742-B729-4A62-9C64-B9B95436650B}">
+          <x14:formula1>
+            <xm:f>lists!$A$2:$A$21</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.58203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3">
+        <v>443</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D370B3E3-55A2-42DE-86A2-5F7164A663C5}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>